--- a/Generator/input/tablemodel2datamodel/LRMS_共通_データモデル←テーブルマッピング.xlsx
+++ b/Generator/input/tablemodel2datamodel/LRMS_共通_データモデル←テーブルマッピング.xlsx
@@ -368,10 +368,6 @@
     <t>終了年齢</t>
   </si>
   <si>
-    <t>PlanFamily</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>GYO_NO</t>
   </si>
   <si>
@@ -1350,10 +1346,6 @@
     <t>AGENT_SEX_CD</t>
   </si>
   <si>
-    <t>T_KRNS_PLAN_FAMILY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>LRMSプラン家族</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -1388,6 +1380,14 @@
   <si>
     <t>M_CONSULTING</t>
     <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>T_LRMS_PFAMLY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LtPlanFamily</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2830,6 +2830,9 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2841,9 +2844,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -3337,16 +3337,16 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" thickBot="1">
       <c r="A1" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="C1" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="D1" s="71" t="s">
         <v>180</v>
-      </c>
-      <c r="D1" s="71" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickTop="1">
@@ -3355,16 +3355,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2" s="75">
         <v>41612</v>
       </c>
       <c r="D2" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F2" s="108" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3823,11 +3823,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17.25">
       <c r="A1" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="125" t="s">
         <v>80</v>
       </c>
       <c r="B2" s="34" t="s">
@@ -3848,7 +3848,7 @@
       <c r="M2" s="37"/>
     </row>
     <row r="3" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A3" s="125"/>
+      <c r="A3" s="126"/>
       <c r="B3" s="17" t="s">
         <v>19</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G3" s="26" t="s">
         <v>20</v>
@@ -3887,28 +3887,28 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="128" t="s">
         <v>81</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="66"/>
       <c r="G4" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J4" s="49" t="s">
         <v>32</v>
@@ -3920,26 +3920,26 @@
       <c r="M4" s="42"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="127"/>
-      <c r="B5" s="126" t="s">
-        <v>230</v>
+      <c r="A5" s="128"/>
+      <c r="B5" s="127" t="s">
+        <v>229</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="66"/>
       <c r="G5" s="97" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>32</v>
@@ -3951,22 +3951,22 @@
       <c r="M5" s="40"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="127"/>
-      <c r="B6" s="126"/>
+      <c r="A6" s="128"/>
+      <c r="B6" s="127"/>
       <c r="C6" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="67"/>
       <c r="G6" s="97"/>
       <c r="H6" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J6" s="50" t="s">
         <v>32</v>
@@ -3978,7 +3978,7 @@
       <c r="M6" s="40"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="127"/>
+      <c r="A7" s="128"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6" t="s">
         <v>63</v>
@@ -4005,22 +4005,22 @@
       <c r="M7" s="40"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="127"/>
-      <c r="B8" s="126"/>
+      <c r="A8" s="128"/>
+      <c r="B8" s="127"/>
       <c r="C8" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="67"/>
       <c r="G8" s="27"/>
       <c r="H8" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J8" s="50" t="s">
         <v>65</v>
@@ -4032,22 +4032,22 @@
       <c r="M8" s="40"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="127"/>
-      <c r="B9" s="126"/>
+      <c r="A9" s="128"/>
+      <c r="B9" s="127"/>
       <c r="C9" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="68"/>
       <c r="G9" s="97"/>
       <c r="H9" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J9" s="51" t="s">
         <v>32</v>
@@ -4059,22 +4059,22 @@
       <c r="M9" s="41"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="127"/>
+      <c r="A10" s="128"/>
       <c r="B10" s="98"/>
       <c r="C10" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="68"/>
       <c r="G10" s="97"/>
       <c r="H10" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="I10" s="29" t="s">
         <v>234</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>235</v>
       </c>
       <c r="J10" s="50" t="s">
         <v>32</v>
@@ -4086,22 +4086,22 @@
       <c r="M10" s="41"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="127"/>
+      <c r="A11" s="128"/>
       <c r="B11" s="98"/>
       <c r="C11" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="68"/>
       <c r="G11" s="97"/>
       <c r="H11" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J11" s="51" t="s">
         <v>32</v>
@@ -4116,19 +4116,19 @@
       <c r="A12" s="43"/>
       <c r="B12" s="98"/>
       <c r="C12" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="68"/>
       <c r="G12" s="97"/>
       <c r="H12" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J12" s="50" t="s">
         <v>32</v>
@@ -4143,19 +4143,19 @@
       <c r="A13" s="43"/>
       <c r="B13" s="98"/>
       <c r="C13" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="68"/>
       <c r="G13" s="97"/>
       <c r="H13" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J13" s="51" t="s">
         <v>32</v>
@@ -4170,19 +4170,19 @@
       <c r="A14" s="43"/>
       <c r="B14" s="98"/>
       <c r="C14" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="68"/>
       <c r="G14" s="97"/>
       <c r="H14" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J14" s="51" t="s">
         <v>32</v>
@@ -4197,19 +4197,19 @@
       <c r="A15" s="43"/>
       <c r="B15" s="98"/>
       <c r="C15" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="68"/>
       <c r="G15" s="97"/>
       <c r="H15" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J15" s="51" t="s">
         <v>32</v>
@@ -4224,19 +4224,19 @@
       <c r="A16" s="43"/>
       <c r="B16" s="98"/>
       <c r="C16" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="68"/>
       <c r="G16" s="97"/>
       <c r="H16" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J16" s="51" t="s">
         <v>32</v>
@@ -4251,19 +4251,19 @@
       <c r="A17" s="43"/>
       <c r="B17" s="98"/>
       <c r="C17" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="69"/>
       <c r="G17" s="97"/>
       <c r="H17" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J17" s="51" t="s">
         <v>32</v>
@@ -4278,19 +4278,19 @@
       <c r="A18" s="43"/>
       <c r="B18" s="98"/>
       <c r="C18" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="69"/>
       <c r="G18" s="97"/>
       <c r="H18" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J18" s="51" t="s">
         <v>32</v>
@@ -4305,19 +4305,19 @@
       <c r="A19" s="43"/>
       <c r="B19" s="110"/>
       <c r="C19" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>252</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>253</v>
       </c>
       <c r="E19" s="56"/>
       <c r="F19" s="69"/>
       <c r="G19" s="109"/>
       <c r="H19" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="I19" s="31" t="s">
         <v>254</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>255</v>
       </c>
       <c r="J19" s="51" t="s">
         <v>26</v>
@@ -4332,19 +4332,19 @@
       <c r="A20" s="43"/>
       <c r="B20" s="98"/>
       <c r="C20" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E20" s="56"/>
       <c r="F20" s="69"/>
       <c r="G20" s="97"/>
       <c r="H20" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J20" s="51" t="s">
         <v>32</v>
@@ -4359,19 +4359,19 @@
       <c r="A21" s="43"/>
       <c r="B21" s="98"/>
       <c r="C21" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E21" s="56"/>
       <c r="F21" s="69"/>
       <c r="G21" s="97"/>
       <c r="H21" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J21" s="51" t="s">
         <v>65</v>
@@ -4386,19 +4386,19 @@
       <c r="A22" s="43"/>
       <c r="B22" s="98"/>
       <c r="C22" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E22" s="56"/>
       <c r="F22" s="69"/>
       <c r="G22" s="97"/>
       <c r="H22" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J22" s="51" t="s">
         <v>65</v>
@@ -4413,18 +4413,18 @@
       <c r="A23" s="43"/>
       <c r="B23" s="98"/>
       <c r="C23" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="67"/>
-      <c r="G23" s="128" t="s">
-        <v>262</v>
+      <c r="G23" s="124" t="s">
+        <v>260</v>
       </c>
       <c r="H23" s="113" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I23" s="94"/>
       <c r="J23" s="95"/>
@@ -4436,10 +4436,10 @@
       <c r="A24" s="43"/>
       <c r="B24" s="98"/>
       <c r="C24" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E24" s="56"/>
       <c r="F24" s="69"/>
@@ -4469,10 +4469,10 @@
     <row r="26" spans="1:13" ht="14.25" customHeight="1" thickTop="1">
       <c r="A26" s="43"/>
       <c r="B26" s="11" t="s">
-        <v>87</v>
+        <v>262</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>18</v>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="F26" s="65"/>
       <c r="G26" s="115" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H26" s="99"/>
       <c r="I26" s="100"/>
@@ -4493,11 +4493,11 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="43"/>
-      <c r="B27" s="126" t="s">
+      <c r="B27" s="127" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>52</v>
@@ -4505,13 +4505,13 @@
       <c r="E27" s="19"/>
       <c r="F27" s="66"/>
       <c r="G27" s="11" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I27" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J27" s="50" t="s">
         <v>26</v>
@@ -4524,9 +4524,9 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="43"/>
-      <c r="B28" s="126"/>
+      <c r="B28" s="127"/>
       <c r="C28" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>53</v>
@@ -4534,7 +4534,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="67"/>
       <c r="G28" s="97" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H28" s="24" t="s">
         <v>70</v>
@@ -4555,7 +4555,7 @@
       <c r="A29" s="43"/>
       <c r="B29" s="107"/>
       <c r="C29" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>54</v>
@@ -4582,7 +4582,7 @@
       <c r="A30" s="43"/>
       <c r="B30" s="107"/>
       <c r="C30" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>56</v>
@@ -4609,7 +4609,7 @@
       <c r="A31" s="43"/>
       <c r="B31" s="98"/>
       <c r="C31" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>0</v>
@@ -4636,19 +4636,19 @@
       <c r="A32" s="43"/>
       <c r="B32" s="18"/>
       <c r="C32" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="68"/>
       <c r="G32" s="57"/>
       <c r="H32" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J32" s="50" t="s">
         <v>26</v>
@@ -4663,7 +4663,7 @@
       <c r="A33" s="43"/>
       <c r="B33" s="18"/>
       <c r="C33" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>57</v>
@@ -4672,10 +4672,10 @@
       <c r="F33" s="68"/>
       <c r="G33" s="57"/>
       <c r="H33" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="I33" s="31" t="s">
         <v>116</v>
-      </c>
-      <c r="I33" s="31" t="s">
-        <v>117</v>
       </c>
       <c r="J33" s="51" t="s">
         <v>26</v>
@@ -4690,7 +4690,7 @@
       <c r="A34" s="43"/>
       <c r="B34" s="18"/>
       <c r="C34" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>58</v>
@@ -4699,10 +4699,10 @@
       <c r="F34" s="116"/>
       <c r="G34" s="57"/>
       <c r="H34" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I34" s="29" t="s">
         <v>118</v>
-      </c>
-      <c r="I34" s="29" t="s">
-        <v>119</v>
       </c>
       <c r="J34" s="50" t="s">
         <v>26</v>
@@ -4717,7 +4717,7 @@
       <c r="A35" s="43"/>
       <c r="B35" s="18"/>
       <c r="C35" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>59</v>
@@ -4726,10 +4726,10 @@
       <c r="F35" s="116"/>
       <c r="G35" s="57"/>
       <c r="H35" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I35" s="31" t="s">
         <v>120</v>
-      </c>
-      <c r="I35" s="31" t="s">
-        <v>121</v>
       </c>
       <c r="J35" s="51" t="s">
         <v>26</v>
@@ -4744,14 +4744,14 @@
       <c r="A36" s="43"/>
       <c r="B36" s="18"/>
       <c r="C36" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>61</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="116" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G36" s="57"/>
       <c r="H36" s="25" t="s">
@@ -4773,7 +4773,7 @@
       <c r="A37" s="43"/>
       <c r="B37" s="46"/>
       <c r="C37" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>62</v>
@@ -4800,10 +4800,10 @@
       <c r="A38" s="43"/>
       <c r="B38" s="46"/>
       <c r="C38" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>110</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="116"/>
@@ -4827,19 +4827,19 @@
       <c r="A39" s="43"/>
       <c r="B39" s="46"/>
       <c r="C39" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>112</v>
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="116"/>
       <c r="G39" s="111"/>
       <c r="H39" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="I39" s="31" t="s">
         <v>136</v>
-      </c>
-      <c r="I39" s="31" t="s">
-        <v>137</v>
       </c>
       <c r="J39" s="51" t="s">
         <v>26</v>
@@ -4856,16 +4856,16 @@
       <c r="A40" s="43"/>
       <c r="B40" s="112"/>
       <c r="C40" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="55" t="s">
         <v>106</v>
-      </c>
-      <c r="D40" s="55" t="s">
-        <v>107</v>
       </c>
       <c r="E40" s="56"/>
       <c r="F40" s="117"/>
       <c r="G40" s="60"/>
       <c r="H40" s="61" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I40" s="62" t="s">
         <v>37</v>
@@ -4883,18 +4883,18 @@
       <c r="A41" s="43"/>
       <c r="B41" s="18"/>
       <c r="C41" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="55" t="s">
         <v>100</v>
-      </c>
-      <c r="D41" s="55" t="s">
-        <v>101</v>
       </c>
       <c r="E41" s="56"/>
       <c r="F41" s="117"/>
       <c r="G41" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H41" s="81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I41" s="82"/>
       <c r="J41" s="83"/>
@@ -4906,18 +4906,18 @@
       <c r="A42" s="43"/>
       <c r="B42" s="59"/>
       <c r="C42" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="55" t="s">
         <v>103</v>
-      </c>
-      <c r="D42" s="55" t="s">
-        <v>104</v>
       </c>
       <c r="E42" s="56"/>
       <c r="F42" s="117"/>
       <c r="G42" s="58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H42" s="85" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I42" s="86"/>
       <c r="J42" s="87"/>
@@ -4929,16 +4929,16 @@
       <c r="A43" s="43"/>
       <c r="B43" s="18"/>
       <c r="C43" s="54" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D43" s="55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E43" s="56"/>
       <c r="F43" s="117"/>
       <c r="G43" s="60"/>
       <c r="H43" s="114" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I43" s="89"/>
       <c r="J43" s="90"/>
@@ -5010,10 +5010,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
@@ -5027,10 +5027,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -5044,10 +5044,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -5061,10 +5061,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
@@ -5078,10 +5078,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
@@ -5214,10 +5214,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -5248,7 +5248,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
@@ -5282,10 +5282,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -5299,10 +5299,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C19" t="s">
         <v>65</v>
@@ -5316,10 +5316,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s">
         <v>65</v>
@@ -5350,10 +5350,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s">
         <v>71</v>
@@ -5384,7 +5384,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
@@ -5435,10 +5435,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
         <v>26</v>
@@ -5452,10 +5452,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" t="s">
         <v>116</v>
-      </c>
-      <c r="B28" t="s">
-        <v>117</v>
       </c>
       <c r="C28" t="s">
         <v>26</v>
@@ -5469,10 +5469,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" t="s">
         <v>118</v>
-      </c>
-      <c r="B29" t="s">
-        <v>119</v>
       </c>
       <c r="C29" t="s">
         <v>26</v>
@@ -5486,10 +5486,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s">
         <v>26</v>
@@ -5554,10 +5554,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C34" t="s">
         <v>26</v>
@@ -5571,10 +5571,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
         <v>65</v>
@@ -5588,10 +5588,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" t="s">
         <v>65</v>
@@ -5622,10 +5622,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s">
         <v>26</v>
@@ -5642,7 +5642,7 @@
         <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -5656,10 +5656,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C40" t="s">
         <v>26</v>
@@ -5676,7 +5676,7 @@
         <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
         <v>26</v>
@@ -5693,7 +5693,7 @@
         <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
@@ -5710,7 +5710,7 @@
         <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
         <v>26</v>
@@ -5727,7 +5727,7 @@
         <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
@@ -5775,10 +5775,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s">
         <v>65</v>
@@ -5792,10 +5792,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s">
         <v>65</v>
@@ -5843,10 +5843,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C51" t="s">
         <v>26</v>
@@ -5857,10 +5857,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C52" t="s">
         <v>26</v>
@@ -5894,7 +5894,7 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
@@ -5908,10 +5908,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" t="s">
         <v>140</v>
-      </c>
-      <c r="B55" t="s">
-        <v>141</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
@@ -5925,7 +5925,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B56" t="s">
         <v>47</v>
@@ -5942,10 +5942,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
@@ -5959,10 +5959,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
@@ -5976,10 +5976,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
@@ -5993,10 +5993,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" t="s">
         <v>113</v>
-      </c>
-      <c r="B60" t="s">
-        <v>114</v>
       </c>
       <c r="C60" t="s">
         <v>26</v>
@@ -6027,10 +6027,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C62" t="s">
         <v>65</v>
@@ -6044,10 +6044,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" t="s">
         <v>65</v>
@@ -6092,10 +6092,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C66" t="s">
         <v>26</v>
@@ -6109,10 +6109,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C67" t="s">
         <v>65</v>
@@ -6126,10 +6126,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C68" t="s">
         <v>65</v>
